--- a/Intended Use.xlsx
+++ b/Intended Use.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quality Check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Company Management Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602C8CE0-750D-42C4-AFBA-E777DE8A6411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313DCF03-132C-4581-A449-AE3C22E1BED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,6 +54,15 @@
     <t>Chromogenic medium for the presumptive identification and confirmation of microorganisms causing urinary tract infections.</t>
   </si>
   <si>
+    <t xml:space="preserve"> 37⁰C ± 2⁰C for 24 h</t>
+  </si>
+  <si>
+    <t>CO2, 37⁰C ± 2⁰C for 24 h</t>
+  </si>
+  <si>
+    <t>37⁰C ± 2⁰C for 24 h</t>
+  </si>
+  <si>
     <t>Recommended for selective cultivation of yeasts, molds and aciduric bacteria from clinical and non-clinical samples.</t>
   </si>
   <si>
@@ -449,15 +458,6 @@
   </si>
   <si>
     <t>Malt Extract Agar Slant (MEA-S)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 37\u00B0C ± 2\u00B0C for 24 h</t>
-  </si>
-  <si>
-    <t>CO2, 37\u00B0C ± 2\u00B0C for 24 h</t>
-  </si>
-  <si>
-    <t>37\u00B0C ± 2\u00B0C for 24 h</t>
   </si>
 </sst>
 </file>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.6640625" defaultRowHeight="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -839,19 +839,19 @@
     <col min="2" max="2" width="72.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="255.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="40.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1">
         <v>101</v>
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -882,16 +882,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1">
         <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -899,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <v>103</v>
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -916,7 +916,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1">
         <v>104</v>
@@ -925,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -933,16 +933,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1">
         <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -950,7 +950,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1">
         <v>107</v>
@@ -959,7 +959,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -967,16 +967,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1">
         <v>112</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -984,13 +984,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1">
         <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -999,16 +999,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1">
         <v>116</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1016,16 +1016,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>117</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1033,16 +1033,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1">
         <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1050,16 +1050,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1">
         <v>120</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1067,13 +1067,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1">
         <v>121</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <v>122</v>
@@ -1091,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1099,16 +1099,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1">
         <v>123</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>124</v>
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1133,13 +1133,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>701</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1148,13 +1148,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <v>702</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1163,16 +1163,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <v>304</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1180,16 +1180,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <v>305</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1197,16 +1197,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <v>306</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1214,16 +1214,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <v>307</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1231,16 +1231,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
         <v>310</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1248,16 +1248,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>401</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1265,13 +1265,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1">
         <v>404</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1280,13 +1280,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1">
         <v>407</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1295,16 +1295,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
         <v>501</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1312,16 +1312,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
         <v>503</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1329,16 +1329,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
         <v>505</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1346,16 +1346,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1">
         <v>506</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1363,16 +1363,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1">
         <v>507</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1380,16 +1380,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1">
         <v>508</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
